--- a/Gym_Padel_DB.xlsx
+++ b/Gym_Padel_DB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_studio\CLI\CLI_GYM&amp;PADEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82BB629-82E9-42C9-83E1-753D7898A0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -111,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,9 +148,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,12 +415,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1992" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -445,7 +448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -463,7 +466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -490,7 +493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -517,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -560,7 +563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -593,7 +596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -617,7 +620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -625,7 +628,7 @@
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Gym_Padel_DB.xlsx
+++ b/Gym_Padel_DB.xlsx
@@ -1,127 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_studio\CLI\CLI_GYM&amp;PADEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ahmed\gym_project\gym_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEB559-4AEE-4112-894C-BA43FAE51740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
-    <sheet name="Manager" sheetId="2" r:id="rId2"/>
-    <sheet name="Trainee" sheetId="3" r:id="rId3"/>
-    <sheet name="Coach" sheetId="4" r:id="rId4"/>
-    <sheet name="Class" sheetId="5" r:id="rId5"/>
-    <sheet name="HallSystem" sheetId="6" r:id="rId6"/>
-    <sheet name="WorkoutPlan" sheetId="7" r:id="rId7"/>
-    <sheet name="Receptionist" sheetId="8" r:id="rId8"/>
+    <sheet name="Manager" sheetId="1" r:id="rId1"/>
+    <sheet name="Trainee" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
-  <si>
-    <t>User ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Lost Calories Per Minute</t>
-  </si>
-  <si>
-    <t>Years Of Experience</t>
-  </si>
-  <si>
-    <t>Class Code</t>
-  </si>
-  <si>
-    <t>Gym Or Padel</t>
-  </si>
-  <si>
-    <t>Training Days</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Max Number Of Trainees</t>
-  </si>
-  <si>
-    <t>Hall Code</t>
-  </si>
-  <si>
-    <t>Hall Capacity</t>
-  </si>
-  <si>
-    <t>Working Days</t>
-  </si>
-  <si>
-    <t>Workout Plan Code</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>Duration</t>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Is VIP</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,18 +88,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +155,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -236,7 +190,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -415,14 +369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1992" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,16 +386,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -448,188 +398,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245D1A8E-CF95-42CB-B598-7E6E43921C83}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.09765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
